--- a/userid=name.xlsx
+++ b/userid=name.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsi\int\Python_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68947876-4A83-4CFF-A16B-8015E4D00E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADD57DA-D890-4753-95AA-00558C9ED108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="6210" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userid" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Было бы досадно, если бы продавцы продавали людям только товары. Главная цель — хорошее настроение покупателя!</t>
+  </si>
+  <si>
+    <t>Продавцом называется человек, дающий покупателям, а в идеале, всем окружающим — возможность обмена денег на счастье.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,8 +77,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -342,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -353,7 +373,21 @@
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
